--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_17_38.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_17_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3650915.406143671</v>
+        <v>3648371.596636588</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7637315.327834425</v>
+        <v>7637315.327834424</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>212.5689651179052</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,7 +671,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83417464571001</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>263.7138800015063</v>
+        <v>136.6253230858994</v>
       </c>
       <c r="W2" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,16 +735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>32.61205797860501</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>22.25920201235136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>79.63579206135121</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>129.4774874596173</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,10 +902,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F5" t="n">
-        <v>219.4450108596164</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>72.36698404190659</v>
       </c>
       <c r="Y5" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,16 +975,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>38.08911925464449</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>10.18456372565657</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>220.4747617066646</v>
       </c>
       <c r="X7" t="n">
-        <v>17.28688718947248</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54915978824949</v>
+        <v>101.4926604386307</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.76608425465022</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,16 +1184,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0453666896856</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>225.2436000926515</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1227,10 +1227,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614507</v>
+        <v>92.83909691614505</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115237</v>
+        <v>18.47335059662667</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>192.0697045406877</v>
       </c>
       <c r="U9" t="n">
-        <v>224.0328052099024</v>
+        <v>225.8092543744329</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5869591640953</v>
       </c>
       <c r="S10" t="n">
-        <v>121.4492414809628</v>
+        <v>182.2982904715991</v>
       </c>
       <c r="T10" t="n">
         <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>60.42721558712918</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>177.696569780335</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1771,16 +1771,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>29.249233057517</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>141.6930519056948</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>55.30088041042183</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="27">
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>125.8152577453148</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>119.8099036979372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>179.2499669408062</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3083,10 +3083,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701358</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>133.5908209162928</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,16 +3193,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>144.4286493356916</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>3.006892987834117</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>161.3373146097481</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>91.87204320893622</v>
       </c>
     </row>
   </sheetData>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>255.7225503044908</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="C2" t="n">
-        <v>255.7225503044908</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="D2" t="n">
-        <v>41.00642392276843</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="E2" t="n">
-        <v>41.00642392276843</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="F2" t="n">
-        <v>34.06092317356496</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="G2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.2826908791759</v>
+        <v>49.28269087917573</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052542</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515904</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030602</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358417</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>432.4256445709457</v>
       </c>
       <c r="V2" t="n">
-        <v>788.477863438847</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="W2" t="n">
-        <v>522.1002068716689</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="X2" t="n">
-        <v>522.1002068716689</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="Y2" t="n">
-        <v>522.1002068716689</v>
+        <v>294.4202677165019</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>228.4916123869091</v>
+        <v>218.0341821179661</v>
       </c>
       <c r="C3" t="n">
-        <v>54.03858310578212</v>
+        <v>43.58115283683904</v>
       </c>
       <c r="D3" t="n">
-        <v>21.0971104001205</v>
+        <v>43.58115283683904</v>
       </c>
       <c r="E3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699346</v>
+        <v>121.653531464967</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302313</v>
+        <v>268.3979551252636</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267552</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293602</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O3" t="n">
-        <v>909.46721075609</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789494</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4434,25 +4434,25 @@
         <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212815</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="T3" t="n">
-        <v>839.7105578442528</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="U3" t="n">
-        <v>839.7105578442528</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="V3" t="n">
-        <v>604.55844961251</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="W3" t="n">
-        <v>604.55844961251</v>
+        <v>633.6459810884528</v>
       </c>
       <c r="X3" t="n">
-        <v>396.7069494069772</v>
+        <v>425.79448088292</v>
       </c>
       <c r="Y3" t="n">
-        <v>396.7069494069772</v>
+        <v>218.0341821179661</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>175.0184834666425</v>
+        <v>101.5373044014854</v>
       </c>
       <c r="C4" t="n">
-        <v>175.0184834666425</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D4" t="n">
-        <v>175.0184834666425</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E4" t="n">
-        <v>175.0184834666425</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F4" t="n">
-        <v>175.0184834666425</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G4" t="n">
-        <v>175.0184834666425</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
         <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4513,25 +4513,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>622.5994491745502</v>
       </c>
       <c r="U4" t="n">
-        <v>924.0701791377247</v>
+        <v>622.5994491745502</v>
       </c>
       <c r="V4" t="n">
-        <v>669.3856909318379</v>
+        <v>367.9149609686633</v>
       </c>
       <c r="W4" t="n">
-        <v>403.0080343646599</v>
+        <v>101.5373044014854</v>
       </c>
       <c r="X4" t="n">
-        <v>175.0184834666425</v>
+        <v>101.5373044014854</v>
       </c>
       <c r="Y4" t="n">
-        <v>175.0184834666425</v>
+        <v>101.5373044014854</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4541,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>255.7225503044907</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="C5" t="n">
-        <v>255.7225503044907</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="D5" t="n">
-        <v>255.7225503044907</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="E5" t="n">
-        <v>255.7225503044907</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F5" t="n">
         <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917573</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052541</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991317</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358414</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4592,25 +4592,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="V5" t="n">
-        <v>1054.855520006025</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="W5" t="n">
-        <v>788.4778634388467</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="X5" t="n">
-        <v>788.4778634388467</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="Y5" t="n">
-        <v>522.1002068716687</v>
+        <v>573.7617370571243</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>650.2565623210693</v>
+        <v>59.57096823309473</v>
       </c>
       <c r="C6" t="n">
-        <v>475.8035330399423</v>
+        <v>59.57096823309473</v>
       </c>
       <c r="D6" t="n">
-        <v>326.869123378691</v>
+        <v>59.57096823309473</v>
       </c>
       <c r="E6" t="n">
-        <v>167.6316683732355</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699344</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L6" t="n">
-        <v>338.8740072302311</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M6" t="n">
-        <v>529.474696326755</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N6" t="n">
-        <v>739.52866342936</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560898</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4671,25 +4671,25 @@
         <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>1036.519636212815</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="T6" t="n">
-        <v>1036.519636212815</v>
+        <v>691.074259448092</v>
       </c>
       <c r="U6" t="n">
-        <v>1036.519636212815</v>
+        <v>462.9384134849055</v>
       </c>
       <c r="V6" t="n">
-        <v>1036.519636212815</v>
+        <v>227.7863052531628</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.519636212815</v>
+        <v>227.7863052531628</v>
       </c>
       <c r="X6" t="n">
-        <v>1026.232198106091</v>
+        <v>227.7863052531628</v>
       </c>
       <c r="Y6" t="n">
-        <v>818.4718993411373</v>
+        <v>227.7863052531628</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>634.9529738206666</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C7" t="n">
-        <v>466.0167908927597</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D7" t="n">
-        <v>315.900151480424</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E7" t="n">
-        <v>167.9870578980309</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
         <v>126.4133765287947</v>
@@ -4735,10 +4735,10 @@
         <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="U7" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="V7" t="n">
-        <v>1054.855520006025</v>
+        <v>464.591469045332</v>
       </c>
       <c r="W7" t="n">
-        <v>1054.855520006025</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="X7" t="n">
-        <v>1037.394017794436</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="Y7" t="n">
-        <v>816.6014386509063</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1182.839042069394</v>
+        <v>981.8557524576252</v>
       </c>
       <c r="C8" t="n">
-        <v>813.8765251289826</v>
+        <v>612.8932355172135</v>
       </c>
       <c r="D8" t="n">
-        <v>455.6108265222322</v>
+        <v>612.8932355172135</v>
       </c>
       <c r="E8" t="n">
-        <v>69.82257392398792</v>
+        <v>227.1049829189693</v>
       </c>
       <c r="F8" t="n">
-        <v>62.87707317478444</v>
+        <v>220.1594821697658</v>
       </c>
       <c r="G8" t="n">
-        <v>51.21125520685566</v>
+        <v>117.6416433428661</v>
       </c>
       <c r="H8" t="n">
-        <v>51.21125520685566</v>
+        <v>117.6416433428661</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685566</v>
+        <v>51.21125520685576</v>
       </c>
       <c r="J8" t="n">
-        <v>187.370225146717</v>
+        <v>187.370225146718</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607421</v>
+        <v>442.1757437607432</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045926</v>
+        <v>795.1862829045945</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995226</v>
+        <v>1219.647962995229</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209584</v>
+        <v>1655.591685209587</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940596</v>
+        <v>2053.905718940599</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550198</v>
+        <v>2359.356530550202</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661163</v>
+        <v>2540.564622661168</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342783</v>
+        <v>2560.562760342788</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342783</v>
+        <v>2560.562760342788</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.562760342783</v>
+        <v>2351.810676439061</v>
       </c>
       <c r="U8" t="n">
-        <v>2560.562760342783</v>
+        <v>2098.229497964631</v>
       </c>
       <c r="V8" t="n">
-        <v>2560.562760342783</v>
+        <v>2098.229497964631</v>
       </c>
       <c r="W8" t="n">
-        <v>2333.043972370408</v>
+        <v>1745.460842694517</v>
       </c>
       <c r="X8" t="n">
-        <v>1959.578214109328</v>
+        <v>1371.995084433437</v>
       </c>
       <c r="Y8" t="n">
-        <v>1569.438882133516</v>
+        <v>981.8557524576252</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041138965631</v>
+        <v>929.5097208010827</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8510846154361</v>
+        <v>755.0566915199557</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9166749541848</v>
+        <v>606.1222818587045</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792199487294</v>
+        <v>446.884826853249</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446619756144</v>
+        <v>300.350268880134</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4424639718026</v>
+        <v>163.6480708763222</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993887</v>
+        <v>69.87120530445846</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685566</v>
+        <v>51.21125520685576</v>
       </c>
       <c r="J9" t="n">
-        <v>238.3188829507235</v>
+        <v>113.4887579637191</v>
       </c>
       <c r="K9" t="n">
-        <v>422.9158793018228</v>
+        <v>298.0857543148186</v>
       </c>
       <c r="L9" t="n">
-        <v>717.4518627353041</v>
+        <v>931.8250374996586</v>
       </c>
       <c r="M9" t="n">
-        <v>1208.393778287028</v>
+        <v>1294.89150597396</v>
       </c>
       <c r="N9" t="n">
-        <v>1842.133061471866</v>
+        <v>1842.13306147187</v>
       </c>
       <c r="O9" t="n">
-        <v>2174.019871459256</v>
+        <v>2174.01987145926</v>
       </c>
       <c r="P9" t="n">
-        <v>2421.05522988888</v>
+        <v>2421.055229888885</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.272628442625</v>
+        <v>2536.27262844263</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342783</v>
+        <v>2560.562760342788</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251698</v>
+        <v>2424.826280251703</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685347</v>
+        <v>2230.816477685352</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520714847062</v>
+        <v>2002.726321751582</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368606615319</v>
+        <v>1767.574213519839</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131249887118</v>
+        <v>1513.336856791638</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279749681585</v>
+        <v>1305.485356586105</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519450916631</v>
+        <v>1097.725057821151</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>370.2640775470983</v>
+        <v>388.134562995072</v>
       </c>
       <c r="C10" t="n">
-        <v>201.3278946191914</v>
+        <v>219.198380067165</v>
       </c>
       <c r="D10" t="n">
-        <v>51.21125520685566</v>
+        <v>219.198380067165</v>
       </c>
       <c r="E10" t="n">
-        <v>51.21125520685566</v>
+        <v>219.198380067165</v>
       </c>
       <c r="F10" t="n">
-        <v>51.21125520685566</v>
+        <v>219.198380067165</v>
       </c>
       <c r="G10" t="n">
-        <v>51.21125520685566</v>
+        <v>51.21125520685576</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685566</v>
+        <v>51.21125520685576</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685566</v>
+        <v>51.21125520685576</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380149</v>
+        <v>76.63468308380169</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676568</v>
+        <v>248.2500215676571</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368921</v>
+        <v>523.3850043368925</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904036</v>
+        <v>823.8653899904043</v>
       </c>
       <c r="N10" t="n">
         <v>1122.635640101613</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931091</v>
+        <v>1382.582027931092</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.4903876165</v>
+        <v>1581.490387616501</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477363</v>
+        <v>1635.769145477364</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477363</v>
+        <v>1533.156055412622</v>
       </c>
       <c r="S10" t="n">
-        <v>1513.093143981441</v>
+        <v>1349.016368067572</v>
       </c>
       <c r="T10" t="n">
-        <v>1290.111842455846</v>
+        <v>1126.035066541977</v>
       </c>
       <c r="U10" t="n">
-        <v>1290.111842455846</v>
+        <v>836.9166930366194</v>
       </c>
       <c r="V10" t="n">
-        <v>1290.111842455846</v>
+        <v>836.9166930366194</v>
       </c>
       <c r="W10" t="n">
-        <v>1000.694672418885</v>
+        <v>836.9166930366194</v>
       </c>
       <c r="X10" t="n">
-        <v>772.7051215208681</v>
+        <v>608.9271421386021</v>
       </c>
       <c r="Y10" t="n">
-        <v>551.912542377338</v>
+        <v>388.134562995072</v>
       </c>
     </row>
     <row r="11">
@@ -5033,16 +5033,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
@@ -5054,25 +5054,25 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>803.8641191832228</v>
+        <v>634.4644740681603</v>
       </c>
       <c r="C13" t="n">
-        <v>634.9279362553159</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429802</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2267.47159895366</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>985.5125840134625</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5255,34 +5255,34 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5297,28 +5297,28 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,25 +5349,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349513</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>2129.438138565707</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
         <v>2129.438138565707</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5507,16 +5507,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,37 +5525,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5744,19 +5744,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.55866301478</v>
@@ -5768,16 +5768,16 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,22 +5823,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
         <v>1307.627092998424</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5993,13 +5993,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6063,19 +6063,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>577.3880777468471</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>639.6425904082687</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6218,22 +6218,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6251,16 +6251,16 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
         <v>3467.980956852888</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.7541388327643</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="C28" t="n">
-        <v>594.8179559048574</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D28" t="n">
-        <v>444.7013164925216</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E28" t="n">
-        <v>444.7013164925216</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>444.7013164925216</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>1023.264090866467</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.402603663004</v>
+        <v>802.4715117229372</v>
       </c>
     </row>
     <row r="29">
@@ -6467,13 +6467,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6503,7 +6503,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,22 +6537,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>1307.627092998424</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6661,10 +6661,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="32">
@@ -6698,10 +6698,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6780,22 +6780,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245706</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
@@ -6901,7 +6901,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>577.8620388433919</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C37" t="n">
-        <v>408.925855915485</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D37" t="n">
-        <v>408.925855915485</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="E37" t="n">
-        <v>261.0127623330919</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2443.925817935984</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2261.070983590888</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2041.469518613829</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1752.394291958027</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1497.70980375214</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1208.292633715179</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>980.3030828171618</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>759.5105036736317</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,7 +7193,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>398.4954786600648</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7403,10 +7403,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7427,19 +7427,19 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7546,25 +7546,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7625,7 +7625,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7655,13 +7655,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,16 +7679,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7728,19 +7728,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1337.934786622704</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>1965.532750177311</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1965.532750177311</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0127623330919</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7849,7 +7849,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,16 +8055,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
-        <v>97.32166909127264</v>
+        <v>26.13373767211345</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>71.18793141915887</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8149,10 +8149,10 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
-        <v>163.0416663658825</v>
+        <v>163.0416663658823</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140413</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
-        <v>97.32166909127241</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8529,19 +8529,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>342.6295957084427</v>
       </c>
       <c r="M9" t="n">
-        <v>129.1671182600223</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>249.1463441538076</v>
+        <v>161.7749020457983</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -11075,13 +11075,13 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>39.70888054695322</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>117.1847295890522</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>6.922421112517554</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>124.5310997715155</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24601,22 +24601,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>39.70888054695402</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>105.8997516911</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>46.24115926564446</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,16 +25081,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,25 +25309,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>2.005313310877568</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>63.36835372228757</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>4.186823682520753</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194225</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>63.36835372228749</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>672043.3098421077</v>
+        <v>672043.3098421076</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>656086.3271572144</v>
+        <v>656086.3271572143</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>656086.3271572143</v>
+        <v>656086.3271572144</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>656086.3271572144</v>
+        <v>656086.3271572143</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>656086.3271572144</v>
+        <v>656086.3271572143</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>656086.3271572143</v>
+        <v>656086.3271572144</v>
       </c>
     </row>
     <row r="14">
@@ -26314,7 +26314,7 @@
         <v>779989.6813710694</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710693</v>
+        <v>779989.6813710694</v>
       </c>
       <c r="D2" t="n">
         <v>779989.6813710688</v>
@@ -26323,19 +26323,19 @@
         <v>766789.2697055059</v>
       </c>
       <c r="F2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="G2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="H2" t="n">
         <v>766789.269705506</v>
       </c>
-      <c r="G2" t="n">
-        <v>766789.2697055063</v>
-      </c>
-      <c r="H2" t="n">
-        <v>766789.2697055064</v>
-      </c>
       <c r="I2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="J2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055056</v>
       </c>
       <c r="K2" t="n">
         <v>766789.2697055058</v>
@@ -26344,16 +26344,16 @@
         <v>766789.269705506</v>
       </c>
       <c r="M2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="N2" t="n">
-        <v>766789.2697055062</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="O2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="P2" t="n">
-        <v>766789.2697055056</v>
+        <v>766789.2697055057</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911932</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580789</v>
+        <v>390680.0076580802</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606935</v>
+        <v>507909.2320606922</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.1544191141</v>
+        <v>68999.15441911404</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101761</v>
+        <v>95270.23779101792</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954691</v>
+        <v>132717.9756954687</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,40 +26421,40 @@
         <v>251227.3656190198</v>
       </c>
       <c r="D4" t="n">
-        <v>140465.2517501117</v>
+        <v>140465.2517501114</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.0322517935</v>
+        <v>11167.03225179354</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179349</v>
+        <v>11167.03225179353</v>
       </c>
       <c r="H4" t="n">
-        <v>11167.03225179346</v>
+        <v>11167.03225179353</v>
       </c>
       <c r="I4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179356</v>
       </c>
       <c r="K4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="L4" t="n">
-        <v>11167.03225179353</v>
+        <v>11167.03225179347</v>
       </c>
       <c r="M4" t="n">
-        <v>11167.03225179353</v>
+        <v>11167.03225179354</v>
       </c>
       <c r="N4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="O4" t="n">
-        <v>11167.03225179356</v>
+        <v>11167.03225179353</v>
       </c>
       <c r="P4" t="n">
         <v>11167.03225179351</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426621</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567897</v>
+        <v>92902.86757567906</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-214373.4680434098</v>
+        <v>-214373.4680434097</v>
       </c>
       <c r="C6" t="n">
-        <v>465714.5125477833</v>
+        <v>465714.5125477834</v>
       </c>
       <c r="D6" t="n">
-        <v>155941.5543871993</v>
+        <v>155941.5543871982</v>
       </c>
       <c r="E6" t="n">
-        <v>146590.4755691118</v>
+        <v>146555.7376436775</v>
       </c>
       <c r="F6" t="n">
-        <v>654499.7076298054</v>
+        <v>654464.9697043695</v>
       </c>
       <c r="G6" t="n">
-        <v>654499.7076298057</v>
+        <v>654464.9697043697</v>
       </c>
       <c r="H6" t="n">
-        <v>654499.7076298059</v>
+        <v>654464.9697043698</v>
       </c>
       <c r="I6" t="n">
-        <v>654499.7076298055</v>
+        <v>654464.9697043695</v>
       </c>
       <c r="J6" t="n">
-        <v>585500.5532106913</v>
+        <v>585465.8152852553</v>
       </c>
       <c r="K6" t="n">
-        <v>654499.7076298052</v>
+        <v>654464.9697043695</v>
       </c>
       <c r="L6" t="n">
-        <v>559229.4698387878</v>
+        <v>559194.731913352</v>
       </c>
       <c r="M6" t="n">
-        <v>521781.7319343362</v>
+        <v>521746.9940089007</v>
       </c>
       <c r="N6" t="n">
-        <v>654499.7076298055</v>
+        <v>654464.9697043695</v>
       </c>
       <c r="O6" t="n">
-        <v>654499.7076298052</v>
+        <v>654464.9697043694</v>
       </c>
       <c r="P6" t="n">
-        <v>654499.707629805</v>
+        <v>654464.9697043694</v>
       </c>
     </row>
   </sheetData>
@@ -26707,7 +26707,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627829</v>
+        <v>933.7024595627838</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856957</v>
+        <v>640.140690085697</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933045</v>
+        <v>319.6474457933056</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788911</v>
+        <v>434.2730407788899</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841895</v>
+        <v>376.4268100841908</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139529</v>
+        <v>532.5675980139514</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015059</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841895</v>
+        <v>376.4268100841908</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139529</v>
+        <v>532.5675980139514</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841895</v>
+        <v>376.4268100841908</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139529</v>
+        <v>532.5675980139514</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.0199616619743</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>142.1140765027778</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27391,7 +27391,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>149.1202946442039</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
@@ -27427,19 +27427,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>64.03837846862865</v>
+        <v>191.1269353842355</v>
       </c>
       <c r="W2" t="n">
-        <v>85.52708871590676</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27455,16 +27455,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>114.8330075860337</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>135.3858784430496</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27473,10 +27473,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,25 +27506,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>87.61102903727662</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27552,13 +27552,13 @@
         <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,22 +27585,22 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>156.7811430430602</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>22.80911833508475</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27622,10 +27622,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F5" t="n">
-        <v>187.431034882095</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>85.52708871590681</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>297.3641166365625</v>
       </c>
       <c r="Y5" t="n">
-        <v>122.5240586545474</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27695,25 +27695,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>119.5559612007565</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,25 +27743,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>195.5884214778209</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27795,7 +27795,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>223.2143458795659</v>
@@ -27831,13 +27831,13 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>66.04823662992641</v>
       </c>
       <c r="X7" t="n">
-        <v>208.4227681995647</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>310.0564993496188</v>
       </c>
       <c r="H8" t="n">
         <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465034</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348406</v>
+        <v>123.4854171348405</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896857</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>123.9973686247615</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -27950,7 +27950,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.776449164525637</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27986,7 +27986,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>1.776449164530476</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,13 +28023,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3072536117062</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430995</v>
+        <v>104.8162497430994</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640953</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>73.22460876942166</v>
+        <v>12.37555977878532</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271897703044</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29341,7 +29341,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
     </row>
     <row r="27">
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31075,7 +31075,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31124,16 +31124,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31142,25 +31142,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,16 +31200,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,31 +31276,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31312,7 +31312,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31361,16 +31361,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31379,25 +31379,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,16 +31437,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31458,25 +31458,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885557</v>
+        <v>3.75357772688556</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546671</v>
+        <v>38.44132789546676</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157556</v>
+        <v>144.7098053157557</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972533</v>
+        <v>318.5802175972536</v>
       </c>
       <c r="K8" t="n">
-        <v>477.469162776319</v>
+        <v>477.4691627763195</v>
       </c>
       <c r="L8" t="n">
-        <v>592.342717135493</v>
+        <v>592.3427171354936</v>
       </c>
       <c r="M8" t="n">
-        <v>659.095405035994</v>
+        <v>659.0954050359946</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525076</v>
+        <v>669.7602577525082</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307894</v>
+        <v>632.4356192307899</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983021</v>
+        <v>539.7691690983025</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542129</v>
+        <v>405.3441667542133</v>
       </c>
       <c r="R8" t="n">
-        <v>235.785676886475</v>
+        <v>235.7856768864753</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140471</v>
+        <v>85.5346524514048</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944153</v>
+        <v>16.43128649944155</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508444</v>
+        <v>0.3002862181508448</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436929</v>
+        <v>2.008341139436931</v>
       </c>
       <c r="H9" t="n">
-        <v>19.3963473203514</v>
+        <v>19.39634732035142</v>
       </c>
       <c r="I9" t="n">
-        <v>69.1468330902627</v>
+        <v>69.14683309026277</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079425</v>
+        <v>189.7441951079427</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502168</v>
+        <v>324.3030514502171</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571281</v>
+        <v>436.0654741571284</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617166</v>
+        <v>508.8678404617171</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152214</v>
+        <v>522.3360580152219</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519084</v>
+        <v>477.8354464519088</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947589</v>
+        <v>383.5050724947593</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463702</v>
+        <v>256.3629847463704</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204789</v>
+        <v>124.693320920479</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366399</v>
+        <v>37.30405581366403</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133936</v>
+        <v>8.095024154133943</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419033</v>
+        <v>0.1321277065419034</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752559</v>
+        <v>1.683725746752561</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840004</v>
+        <v>14.96985254840005</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415879</v>
+        <v>50.63422518415884</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954059</v>
+        <v>119.039410295406</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772518</v>
+        <v>195.618318577252</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490123</v>
+        <v>250.3240987490126</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023125</v>
+        <v>263.9316641023128</v>
       </c>
       <c r="N10" t="n">
-        <v>257.655959046235</v>
+        <v>257.6559590462352</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046254</v>
+        <v>237.9869810046257</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708731</v>
+        <v>203.6389757708733</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939802</v>
+        <v>140.9890713939803</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307414</v>
+        <v>75.70643221307421</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658777</v>
+        <v>29.3427477865878</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942751</v>
+        <v>7.194100917942758</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650333</v>
+        <v>0.09183958618650342</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>506.566534435233</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>163.1438255932938</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>746.4857620875795</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>533.6019216797995</v>
       </c>
       <c r="M18" t="n">
-        <v>446.012731199064</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>247.3820194983584</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>368.6279838366847</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,22 +32783,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>245.8118639189582</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -33020,13 +33020,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>463.4318227833011</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,25 +33257,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>351.5042614518788</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33500,25 +33500,25 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>460.9249101897664</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33658,7 +33658,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -33731,13 +33731,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33980,22 +33980,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>569.57231719539</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34217,22 +34217,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>444.2274915982891</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34448,22 +34448,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>454.8099857531869</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,13 +34778,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>172.7600739089031</v>
+        <v>101.5721424897439</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823473</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="N3" t="n">
         <v>212.1757243460657</v>
@@ -34796,7 +34796,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649641</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34869,13 +34869,13 @@
         <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0986910958077</v>
+        <v>181.0986910958076</v>
       </c>
       <c r="P4" t="n">
-        <v>131.2029511204533</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35018,7 +35018,7 @@
         <v>172.7600739089029</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35033,7 +35033,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649641</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35112,7 +35112,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.534313070567</v>
+        <v>137.5343130705674</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313385</v>
+        <v>257.3793117313389</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655058</v>
+        <v>356.5763021655063</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087213</v>
+        <v>428.7491718087219</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559167</v>
+        <v>440.3471941559173</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091026</v>
+        <v>402.3374078091032</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430325</v>
+        <v>308.536173343033</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797635</v>
+        <v>183.0384768797639</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234292</v>
+        <v>20.20013907234315</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>188.9976037816847</v>
+        <v>62.90656844127605</v>
       </c>
       <c r="K9" t="n">
-        <v>186.4616124758578</v>
+        <v>186.4616124758581</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772539</v>
+        <v>640.140690085697</v>
       </c>
       <c r="M9" t="n">
-        <v>495.9009247997207</v>
+        <v>366.7338065396988</v>
       </c>
       <c r="N9" t="n">
-        <v>640.1406900856957</v>
+        <v>552.7692479776869</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074639</v>
+        <v>335.2392020074644</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804287</v>
+        <v>249.5306650804291</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603486</v>
+        <v>116.3812106603489</v>
       </c>
       <c r="R9" t="n">
-        <v>24.53548676783574</v>
+        <v>24.53548676783586</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873315</v>
+        <v>25.68023017873327</v>
       </c>
       <c r="K10" t="n">
-        <v>173.348826751369</v>
+        <v>173.3488267513692</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093285</v>
+        <v>277.9141240093287</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641531</v>
+        <v>303.5155410641534</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254636</v>
+        <v>301.7881314254638</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186651</v>
+        <v>262.5721089186653</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357665</v>
+        <v>200.9175350357667</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228584</v>
+        <v>54.82702814228595</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,31 +35483,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>364.4325005132147</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>615.1440500042462</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="M18" t="n">
-        <v>303.8786972770457</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>237.2862717533515</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36431,22 +36431,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>103.6778299969399</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>320.8355783388566</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,25 +36905,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>208.9080170074344</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37148,25 +37148,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>322.3705304098922</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37628,22 +37628,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>426.9760727509455</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37795,13 +37795,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683826</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,22 +37865,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>302.0934576762708</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38096,22 +38096,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>320.8355783388566</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
